--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="240" windowWidth="20730" windowHeight="11520" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="ExamPacket" sheetId="2" r:id="rId3"/>
     <sheet name="Room" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>UserName</t>
   </si>
@@ -30,86 +30,107 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>TSUT</t>
+  </si>
+  <si>
+    <t>Gói XNTQ</t>
+  </si>
+  <si>
+    <t>Helicobacter pylori, H.pylori</t>
+  </si>
+  <si>
+    <t>Gói XN Gan</t>
+  </si>
+  <si>
+    <t>Gói KSK cơ bản</t>
+  </si>
+  <si>
+    <t>Ck nữ</t>
+  </si>
+  <si>
+    <t>Gói KSK cao cấp</t>
+  </si>
+  <si>
+    <t>Tư vấn XN tại nhà</t>
+  </si>
+  <si>
+    <t>xét nghiệm vi khuẩn viêm loét dạ dày (helicobacter pylori, h.pylori)</t>
+  </si>
+  <si>
+    <t>gói khám sức khoẻ cơ bản</t>
+  </si>
+  <si>
+    <t>gói khám chuyên khoa nữ</t>
+  </si>
+  <si>
+    <t>xét nghiệm tầm soát ung thư nữ</t>
+  </si>
+  <si>
+    <t>xét nghiệm tầm soát ung thư (nữ)</t>
+  </si>
+  <si>
+    <t>xét nghiệm tầm soát ung thư (nam)</t>
+  </si>
+  <si>
+    <t>gói khám sức khoẻ cao cấp</t>
+  </si>
+  <si>
+    <t>gói xét nghiệm tổng quát</t>
+  </si>
+  <si>
+    <t>tư vấn xét nghiệm tại nhà - miễn phí!</t>
+  </si>
+  <si>
+    <t>gói xét nghiệm gan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEASE DON’T REMOVE </t>
+  </si>
+  <si>
+    <t>Number Page</t>
+  </si>
+  <si>
+    <t>Exam Room</t>
+  </si>
+  <si>
+    <t>dat130107</t>
+  </si>
+  <si>
+    <t>Combo Gói khám tổng quát cơ bản + Tầm soát ung thư nữ</t>
+  </si>
+  <si>
+    <t>Combo Gói khám tổng quát cơ bản + Tầm soát ung thư nam</t>
+  </si>
+  <si>
+    <t>Gói KSK cơ bản +TSUT</t>
+  </si>
+  <si>
+    <t>Gói khám sức khỏe tổng quát, tầm soát ung thư và khám chuyên khoa nữ</t>
+  </si>
+  <si>
+    <t>Gói KSK cơ bản +TSUT + ck nữ</t>
+  </si>
+  <si>
+    <t>Combo Gói khám chuyên khoa nữ + Gói khám tổng quát cơ bản</t>
+  </si>
+  <si>
+    <t>Gói KSK cơ bản + ck nữ</t>
+  </si>
+  <si>
     <t>minhnn@edoctor.vn</t>
   </si>
   <si>
-    <t>minh130107</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>TSUT</t>
-  </si>
-  <si>
-    <t>Gói XNTQ</t>
-  </si>
-  <si>
-    <t>Helicobacter pylori, H.pylori</t>
-  </si>
-  <si>
-    <t>Gói XN Gan</t>
-  </si>
-  <si>
-    <t>Gói KSK cơ bản</t>
-  </si>
-  <si>
-    <t>Ck nữ</t>
-  </si>
-  <si>
-    <t>Gói KSK cao cấp</t>
-  </si>
-  <si>
-    <t>Tư vấn XN tại nhà</t>
-  </si>
-  <si>
-    <t>xét nghiệm vi khuẩn viêm loét dạ dày (helicobacter pylori, h.pylori)</t>
-  </si>
-  <si>
-    <t>gói khám sức khoẻ cơ bản</t>
-  </si>
-  <si>
-    <t>gói khám chuyên khoa nữ</t>
-  </si>
-  <si>
-    <t>xét nghiệm tầm soát ung thư nữ</t>
-  </si>
-  <si>
-    <t>xét nghiệm tầm soát ung thư (nữ)</t>
-  </si>
-  <si>
-    <t>xét nghiệm tầm soát ung thư (nam)</t>
-  </si>
-  <si>
-    <t>gói khám sức khoẻ cao cấp</t>
-  </si>
-  <si>
-    <t>gói xét nghiệm tổng quát</t>
-  </si>
-  <si>
-    <t>tư vấn xét nghiệm tại nhà - miễn phí!</t>
-  </si>
-  <si>
-    <t>gói xét nghiệm gan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLEASE DON’T REMOVE </t>
-  </si>
-  <si>
-    <t>Number Page</t>
-  </si>
-  <si>
-    <t>Exam Room</t>
-  </si>
-  <si>
-    <t>ALL</t>
+    <t>Ngày mai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +177,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF151B1E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -327,7 +360,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -341,6 +374,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -402,7 +439,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -437,7 +474,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -614,7 +651,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -625,21 +662,21 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -647,7 +684,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -664,26 +701,26 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10">
         <v>0</v>
@@ -691,7 +728,7 @@
     </row>
     <row r="3" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -710,100 +747,133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -815,17 +885,17 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
